--- a/Model18_04_2017/RegressionFormula.xlsx
+++ b/Model18_04_2017/RegressionFormula.xlsx
@@ -7,10 +7,12 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Normalized" sheetId="2" r:id="rId1"/>
+    <sheet name="Unnormalized" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="RegressionFormula" localSheetId="0">Лист1!$A$1:$C$266</definedName>
+    <definedName name="RegressionFormula" localSheetId="1">Unnormalized!$A$2:$C$267</definedName>
+    <definedName name="RegressionFormulaNorm" localSheetId="0">Normalized!$A$1:$C$264</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,11 +34,20 @@
       </textFields>
     </textPr>
   </connection>
+  <connection id="2" name="RegressionFormulaNorm" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="866" sourceFile="E:\Education materials\Diploma\dotaML\Model18_04_2017\RegressionFormulaNorm.txt" decimal="," thousands=" " tab="0" comma="1">
+      <textFields count="3">
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="310">
   <si>
     <t>localized_name_x_Tinker</t>
   </si>
@@ -834,13 +845,145 @@
   </si>
   <si>
     <t xml:space="preserve"> localized_name_x_Alchemist</t>
+  </si>
+  <si>
+    <t>TO Check</t>
+  </si>
+  <si>
+    <t>https://www.opendota.com/explorer?select=&amp;hero=&amp;group=hero&amp;minDate=2016-12-31T21%3A00%3A00.000Z&amp;result=&amp;patch=&amp;player=&amp;format=table</t>
+  </si>
+  <si>
+    <t>Коэф по герою походит на сочетание WR + GPM или XPM</t>
+  </si>
+  <si>
+    <t>cluster name</t>
+  </si>
+  <si>
+    <t>111 US West</t>
+  </si>
+  <si>
+    <t>112 US West</t>
+  </si>
+  <si>
+    <t>114 US West</t>
+  </si>
+  <si>
+    <t>121 US East</t>
+  </si>
+  <si>
+    <t>122 US East</t>
+  </si>
+  <si>
+    <t>123 US East *According to DB</t>
+  </si>
+  <si>
+    <t>124 US East *According to DB</t>
+  </si>
+  <si>
+    <t>131 Europe West</t>
+  </si>
+  <si>
+    <t>132 Europe West</t>
+  </si>
+  <si>
+    <t>133 Europe West</t>
+  </si>
+  <si>
+    <t>134 Europe West *According to DB</t>
+  </si>
+  <si>
+    <t>135 Europe West *According to DB</t>
+  </si>
+  <si>
+    <t>136 Europe West *According to DB</t>
+  </si>
+  <si>
+    <t>142 South Korea *According to DB</t>
+  </si>
+  <si>
+    <t>143 South Korea *According to DB (Used to be HK... srsly Volvo... are you re-using cluster indexes??)</t>
+  </si>
+  <si>
+    <t>151 Southeast Asia</t>
+  </si>
+  <si>
+    <t>152 Southeast Asia</t>
+  </si>
+  <si>
+    <t>153 Southeast Asia</t>
+  </si>
+  <si>
+    <t>161 China *DEPRECATED</t>
+  </si>
+  <si>
+    <t>163 China *DEPRECATED</t>
+  </si>
+  <si>
+    <t>171 Australia</t>
+  </si>
+  <si>
+    <t>181 Russia</t>
+  </si>
+  <si>
+    <t>182 Russia</t>
+  </si>
+  <si>
+    <t>183 Russia *According to DB</t>
+  </si>
+  <si>
+    <t>184 Russia *According to DB</t>
+  </si>
+  <si>
+    <t>191 Europe East</t>
+  </si>
+  <si>
+    <t>200 South America</t>
+  </si>
+  <si>
+    <t>204 South America *According to DB</t>
+  </si>
+  <si>
+    <t>211 South Africa</t>
+  </si>
+  <si>
+    <t>212 South Africa *According to DB</t>
+  </si>
+  <si>
+    <t>213 South Africa *According to DB</t>
+  </si>
+  <si>
+    <t>221 China </t>
+  </si>
+  <si>
+    <t>222 China</t>
+  </si>
+  <si>
+    <t>223 China *According to DB</t>
+  </si>
+  <si>
+    <t>231 China *According to DB</t>
+  </si>
+  <si>
+    <t>Модель хорошо настроилась на Европейский стиль игры</t>
+  </si>
+  <si>
+    <t>Либо Европа просто доминирует? Как интерпретировать</t>
+  </si>
+  <si>
+    <t>Важность кластера?</t>
+  </si>
+  <si>
+    <t>localized_name_x_Huskar</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> localized_name_x_Tinker</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -848,13 +991,41 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF333333"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF333333"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -869,9 +1040,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -890,6 +1068,10 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RegressionFormulaNorm" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RegressionFormula" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
@@ -1156,629 +1338,3025 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B266"/>
+  <dimension ref="A1:G264"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K106" sqref="K106"/>
+      <selection activeCell="I7" sqref="I7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.77734375" customWidth="1"/>
+    <col min="7" max="7" width="28.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="B1">
+        <v>42.485693074857501</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>14.3802369232777</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="B3">
+        <v>11.501735327655</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4">
+        <v>2.66968116829405</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="B5">
+        <v>1.77560972274115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="B6">
+        <v>1.6378286401384901</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B7">
+        <v>1.5303068637741899</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="B8">
+        <v>1.4045342421850699</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9">
+        <v>1.3565406671039599</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="B10">
+        <v>1.2758124579905801</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="B11">
+        <v>1.2421371759734099</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12">
+        <v>1.1904016602124099</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="B13">
+        <v>1.1547220161426099</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="B14">
+        <v>1.11296904139969</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="B15">
+        <v>1.0167848901468699</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="B16">
+        <v>1.01444327407451</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B17">
+        <v>0.94717222141859903</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18">
+        <v>0.90098507579749898</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B19">
+        <v>0.88773034544586105</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B20">
+        <v>0.81037895547469496</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="B21">
+        <v>0.70179237290975105</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B22">
+        <v>0.64564323791877198</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="B23">
+        <v>0.64086971457366504</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B24">
+        <v>0.62664289195539702</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25">
+        <v>0.573629970574703</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B26">
+        <v>0.55012300861633401</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="B27">
+        <v>0.45360741580406599</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="B28">
+        <v>0.37717201502220699</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>0.370887443382171</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="B30">
+        <v>0.32339885828963499</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="B31">
+        <v>0.31568288693871299</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="B32">
+        <v>0.293464395727702</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="B33">
+        <v>0.28792884609165598</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B34">
+        <v>0.256630627107161</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B35">
+        <v>0.24075541995046201</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="B36">
+        <v>0.22220449147858001</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="B37">
+        <v>0.21954908555872099</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="B38">
+        <v>0.219051347860691</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="B39">
+        <v>0.21010787369008199</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="B40">
+        <v>0.195252716133306</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>0.18605458444669801</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B42">
+        <v>0.18062304184772901</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B43">
+        <v>0.166668707597209</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B44">
+        <v>0.16384710086604201</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B45">
+        <v>0.136823910285755</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="B46">
+        <v>0.114600746913062</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B47">
+        <v>0.10163098794424801</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="B48">
+        <v>9.2040078823692903E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="B49">
+        <v>9.0187503817549294E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B50">
+        <v>8.8156381561075803E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B51">
+        <v>6.9244386959056797E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="B52">
+        <v>5.7802927510195598E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B53">
+        <v>5.0435605403656103E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="B54">
+        <v>3.4244480208447198E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B55">
+        <v>3.04680429910681E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B56">
+        <v>2.8662111059811202E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B57">
+        <v>2.46157022434857E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B58">
+        <v>2.32645615071474E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B59">
+        <v>2.2567295096470499E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="B60">
+        <v>2.17283513171567E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="B61">
+        <v>2.1534673317304801E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="B62">
+        <v>2.06394071831008E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B63">
+        <v>1.35515634964683E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="B65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="B68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="B73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="B74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="B77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="B80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="B82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="B84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="B85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="B87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="B89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="B91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="B98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="B102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="B104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="B105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="B106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="B108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="B110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="B113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="B114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="B115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="B117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="B118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A119" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="B119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A120" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="B120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A121" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="B121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A122" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A123" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="B123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A124" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="B124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A125" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A126" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="B126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A127" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A128" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="B128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A130" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="B130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A131" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A132" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="B132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A133" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="B133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A134" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="B134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A135" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="B135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A136" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="B136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A137" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="B137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A138" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="B138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A139" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="B139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A140" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A141" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="B141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A142" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="B142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A143" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="B143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A144" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A145" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="B145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A146" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="B146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A147" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="B147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A148" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A149" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="B149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A150" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A151" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="B151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A152" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="B152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A153" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A154" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A155" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A156" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A157" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="B157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A158" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="B158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A159" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="B159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A160" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="B160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A161" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A162" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A163" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A164" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="B164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A165" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="B165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A166" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A167" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="B167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A168" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="B168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A169" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="B169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A170" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="B170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A171" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="B171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A172" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="B172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A173" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A174" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="B174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A175" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A176" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="B176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A177" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="B177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A178" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="B178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A179" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="B179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A180" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="B180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A181" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="B181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A182" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="B182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A183" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="B183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A184" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="B184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A185" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="B185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A186" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="B186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A187" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="B187">
+        <v>-8.4417740629098305E-4</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A188" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B188">
+        <v>-5.05218977596124E-3</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A189" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B189">
+        <v>-5.1352346248061996E-3</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A190" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="B190">
+        <v>-1.9185105548884501E-2</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A191" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="B191">
+        <v>-2.0231754807794999E-2</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A192" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="B192">
+        <v>-2.16446249892354E-2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A193" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B193">
+        <v>-3.0072086544061499E-2</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A194" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B194">
+        <v>-3.4636138957448701E-2</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A195" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B195">
+        <v>-3.5803978027787599E-2</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A196" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B196">
+        <v>-4.12255541790763E-2</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A197" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="B197">
+        <v>-4.74587179368193E-2</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A198" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="B198">
+        <v>-5.7275705193886799E-2</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A199" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B199">
+        <v>-8.2757712885079895E-2</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A200" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B200">
+        <v>-8.4915703128707304E-2</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A201" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="B201">
+        <v>-9.2886862359356295E-2</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A202" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B202">
+        <v>-9.4097066401041499E-2</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A203" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B203">
+        <v>-0.11530093955711999</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A204" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B204">
+        <v>-0.12324058073060699</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A205" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="B205">
+        <v>-0.124687829136078</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A206" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="B206">
+        <v>-0.129955602564856</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A207" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B207">
+        <v>-0.14496828251786001</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A208" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B208">
+        <v>-0.166140394684229</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A209" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B209">
+        <v>-0.17429358135124201</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A210" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B210">
+        <v>-0.19223094494294299</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A211" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="B211">
+        <v>-0.225967299028493</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A212" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="B212">
+        <v>-0.235298692299129</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A213" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="B213">
+        <v>-0.283093618335931</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A214" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B214">
+        <v>-0.29212678344014198</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A215" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="B215">
+        <v>-0.29725699546474599</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A216" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B216">
+        <v>-0.32597843366201601</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A217" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B217">
+        <v>-0.38668060664645698</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A218" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="B218">
+        <v>-0.41506692873310902</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A219" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="B219">
+        <v>-0.42616662668951</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A220" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="B220">
+        <v>-0.44421722272203001</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A221" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B221">
+        <v>-0.48603727163327698</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A222" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B222">
+        <v>-0.49059573389399402</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A223" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="B223">
+        <v>-0.52551466375589195</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A224" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="B224">
+        <v>-0.54180651928264001</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A225" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B225">
+        <v>-0.60680316529706102</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A226" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="B226">
+        <v>-0.60891922501345497</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A227" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="B227">
+        <v>-0.61379773411087502</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A228" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="B228">
+        <v>-0.627599449140822</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A229" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="B229">
+        <v>-0.63408995913738997</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A230" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="B230">
+        <v>-0.67443692689843704</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A231" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B231">
+        <v>-0.71210861605938403</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A232" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B232">
+        <v>-0.74113813382398797</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A233" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B233">
+        <v>-0.80842352283035601</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A234" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="B234">
+        <v>-0.81429832173368299</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A235" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B235">
+        <v>-0.82697703411089096</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A236" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B236">
+        <v>-0.82871092376670796</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A237" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="B237">
+        <v>-0.84228907813935905</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A238" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B238">
+        <v>-0.84468493299320702</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A239" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B239">
+        <v>-0.87858251708023705</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A240" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B240">
+        <v>-0.89038933958795097</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A241" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="B241">
+        <v>-0.95343847030503803</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A242" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="B242">
+        <v>-1.0549465398887501</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A243" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="B243">
+        <v>-1.1728662143297099</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A244" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="B244">
+        <v>-1.24904069072414</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A245" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="B245">
+        <v>-1.2930335254727301</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A246" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="B246">
+        <v>-1.3900392008342199</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A247" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="B247">
+        <v>-1.42051190108249</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A248" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B248">
+        <v>-1.50284123880765</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A249" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="B249">
+        <v>-1.57242273704901</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A250" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B250">
+        <v>-1.63237408862949</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A251" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="B251">
+        <v>-1.7539894678927399</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A252" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="B252">
+        <v>-1.80675146295572</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A253" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="B253">
+        <v>-1.8697072942088899</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A254" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B254">
+        <v>-2.0179499941104102</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A255" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B255">
+        <v>-2.2041881204645599</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A256" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B256">
+        <v>-2.8166733778570099</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A257" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B257">
+        <v>-2.8829915129228598</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A258" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="B258">
+        <v>-2.9194678520991602</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A259" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B259">
+        <v>-3.53196881308001</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A260" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B260">
+        <v>-5.1072642778884401</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A261" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B261">
+        <v>-6.5451326216077703</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A262" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B262">
+        <v>-6.7020674813728904</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A263" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B263">
+        <v>-9.2107740369213893</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A264" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="B264">
+        <v>-15.9036033047507</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B1:B1048576">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{2BBBB08A-AA52-405B-9157-2E48FA95B40C}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{2BBBB08A-AA52-405B-9157-2E48FA95B40C}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>B1:B1048576</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E267"/>
+  <sheetViews>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="33.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="52.5546875" customWidth="1"/>
+    <col min="5" max="5" width="27.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1">
+        <v>266</v>
+      </c>
+      <c r="B1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
         <v>3.0751745688521002</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B3">
         <v>2.4197690785455999</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="D3" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B4">
         <v>2.0877094097703401</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B5">
         <v>1.8729412819878499</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="D5" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="B6">
         <v>1.8463436449644799</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="D6" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="B7">
         <v>1.8238537317957799</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="D7" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B7">
+      <c r="B8">
         <v>1.4821062029227301</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="E8" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B8">
+      <c r="B9">
         <v>1.47670338620255</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="E9" s="3" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="B9">
+      <c r="B10">
         <v>1.44746088178568</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="E10" s="3" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>9</v>
       </c>
-      <c r="B10">
+      <c r="B11">
         <v>1.4124105357987899</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="E11" s="3" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>10</v>
       </c>
-      <c r="B11">
+      <c r="B12">
         <v>1.3069252560659901</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="E12" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>11</v>
       </c>
-      <c r="B12">
+      <c r="B13">
         <v>1.2925403137670499</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="E13" s="3" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>12</v>
       </c>
-      <c r="B13">
+      <c r="B14">
         <v>1.2628525343830299</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="E14" s="3" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>13</v>
       </c>
-      <c r="B14">
+      <c r="B15">
         <v>1.2230269777221201</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="E15" s="3" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>14</v>
       </c>
-      <c r="B15">
+      <c r="B16">
         <v>1.1357661146418701</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="E16" s="3" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>15</v>
       </c>
-      <c r="B16">
+      <c r="B17">
         <v>1.06426682523031</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="E17" s="3" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>16</v>
       </c>
-      <c r="B17">
+      <c r="B18">
         <v>0.86040985130165903</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="E18" s="3" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>17</v>
       </c>
-      <c r="B18">
+      <c r="B19">
         <v>0.72965402386037803</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="E19" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>18</v>
       </c>
-      <c r="B19">
+      <c r="B20">
         <v>0.69826513106072496</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="E20" s="3" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>19</v>
       </c>
-      <c r="B20">
+      <c r="B21">
         <v>0.49282757996651</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+      <c r="E21" s="5" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>20</v>
       </c>
-      <c r="B21">
+      <c r="B22">
         <v>0.491441344905725</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+      <c r="E22" s="3" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B22">
+      <c r="B23">
         <v>0.44373720253064702</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+      <c r="E23" s="3" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>22</v>
       </c>
-      <c r="B23">
+      <c r="B24">
         <v>0.439609708200075</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+      <c r="E24" s="5" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>23</v>
       </c>
-      <c r="B24">
+      <c r="B25">
         <v>0.42971392978168599</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+      <c r="E25" s="3" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>24</v>
       </c>
-      <c r="B25">
+      <c r="B26">
         <v>0.38588502920607298</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+      <c r="E26" s="3" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
         <v>25</v>
       </c>
-      <c r="B26">
+      <c r="B27">
         <v>0.35991321004309301</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+      <c r="E27" s="3" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>26</v>
       </c>
-      <c r="B27">
+      <c r="B28">
         <v>0.35676356285166499</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+      <c r="E28" s="3" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
         <v>27</v>
       </c>
-      <c r="B28">
+      <c r="B29">
         <v>0.33405468997639298</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+      <c r="E29" s="3" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B29">
+      <c r="B30">
         <v>0.26682675480558299</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+      <c r="E30" s="3" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
         <v>29</v>
       </c>
-      <c r="B30">
+      <c r="B31">
         <v>0.23498892045706599</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+      <c r="E31" s="5" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B31">
+      <c r="B32">
         <v>0.23364444241665</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
+      <c r="E32" s="5" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
         <v>31</v>
       </c>
-      <c r="B32">
+      <c r="B33">
         <v>0.21387612993667199</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
+      <c r="E33" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
         <v>32</v>
       </c>
-      <c r="B33">
+      <c r="B34">
         <v>0.209823494997466</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
+      <c r="E34" s="3" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
         <v>33</v>
       </c>
-      <c r="B34">
+      <c r="B35">
         <v>0.20706918815329101</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
+      <c r="E35" s="3" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B35">
+      <c r="B36">
         <v>0.20615188056835199</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
+      <c r="E36" s="3" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
         <v>35</v>
       </c>
-      <c r="B36">
+      <c r="B37">
         <v>0.192826267027502</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
+      <c r="E37" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
         <v>36</v>
       </c>
-      <c r="B37">
+      <c r="B38">
         <v>0.177108478999143</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
+      <c r="E38" s="3" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
         <v>37</v>
       </c>
-      <c r="B38">
+      <c r="B39">
         <v>0.17477527623889</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
+      <c r="E39" s="3" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
         <v>38</v>
       </c>
-      <c r="B39">
+      <c r="B40">
         <v>0.161679250942634</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
+      <c r="E40" s="3" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
         <v>39</v>
       </c>
-      <c r="B40">
+      <c r="B41">
         <v>0.15895490994000699</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
+      <c r="E41" s="3" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
         <v>40</v>
       </c>
-      <c r="B41">
+      <c r="B42">
         <v>0.15631103194395099</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
+      <c r="E42" s="3" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
         <v>41</v>
       </c>
-      <c r="B42">
+      <c r="B43">
         <v>0.14983195371692701</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
+      <c r="E43" s="3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
         <v>42</v>
       </c>
-      <c r="B43">
+      <c r="B44">
         <v>0.13973424967055501</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
         <v>43</v>
       </c>
-      <c r="B44">
+      <c r="B45">
         <v>0.12969562026407999</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
         <v>44</v>
       </c>
-      <c r="B45">
+      <c r="B46">
         <v>0.11271238688374099</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
         <v>45</v>
       </c>
-      <c r="B46">
+      <c r="B47">
         <v>0.111494964899123</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
         <v>46</v>
       </c>
-      <c r="B47">
+      <c r="B48">
         <v>0.110654912656114</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>47</v>
-      </c>
-      <c r="B48">
-        <v>9.6385479750498299E-2</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49">
-        <v>7.5647673090526807E-2</v>
+        <v>9.6385479750498299E-2</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B50">
-        <v>6.9091714988843006E-2</v>
+        <v>7.5647673090526807E-2</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B51">
-        <v>6.69602834055366E-2</v>
+        <v>6.9091714988843006E-2</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B52">
-        <v>6.05360150801263E-2</v>
+        <v>6.69602834055366E-2</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B53">
-        <v>5.4301508652275197E-2</v>
+        <v>6.05360150801263E-2</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B54">
-        <v>4.0806506514548299E-2</v>
+        <v>5.4301508652275197E-2</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B55">
-        <v>3.7274760201434901E-2</v>
+        <v>4.0806506514548299E-2</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B56">
-        <v>3.17108505015921E-2</v>
+        <v>3.7274760201434901E-2</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B57">
-        <v>3.0293980187591999E-2</v>
+        <v>3.17108505015921E-2</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B58">
-        <v>2.47813589247011E-2</v>
+        <v>3.0293980187591999E-2</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B59">
-        <v>2.1605017589426099E-2</v>
+        <v>2.47813589247011E-2</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B60">
-        <v>2.0746783180872402E-2</v>
+        <v>2.1605017589426099E-2</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B61">
-        <v>1.58323945283302E-3</v>
+        <v>2.0746783180872402E-2</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B62">
-        <v>1.2654580917972301E-3</v>
+        <v>1.58323945283302E-3</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B63">
-        <v>5.8712169396304005E-4</v>
+        <v>1.2654580917972301E-3</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B64">
-        <v>5.2336581410281102E-4</v>
+        <v>5.8712169396304005E-4</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B65">
-        <v>4.8738244784903402E-4</v>
+        <v>5.2336581410281102E-4</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B66">
-        <v>3.3206803422411901E-4</v>
+        <v>4.8738244784903402E-4</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B67">
-        <v>2.7032962052838999E-4</v>
+        <v>3.3206803422411901E-4</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B68">
-        <v>1.9122963572844201E-4</v>
+        <v>2.7032962052838999E-4</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B69">
-        <v>1.5583628596977801E-4</v>
+        <v>1.9122963572844201E-4</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B70">
-        <v>1.3942061784245099E-4</v>
+        <v>1.5583628596977801E-4</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B71">
-        <v>1.26104550848738E-4</v>
+        <v>1.3942061784245099E-4</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>71</v>
-      </c>
-      <c r="B72" s="1">
-        <v>3.9688725272795899E-5</v>
+        <v>70</v>
+      </c>
+      <c r="B72">
+        <v>1.26104550848738E-4</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B73" s="1">
-        <v>1.5695437149888501E-5</v>
+        <v>3.9688725272795899E-5</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B74" s="1">
-        <v>7.9667970399123193E-6</v>
+        <v>1.5695437149888501E-5</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B75" s="1">
-        <v>1.76656415284027E-6</v>
+        <v>7.9667970399123193E-6</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>75</v>
-      </c>
-      <c r="B76">
-        <v>0</v>
+        <v>74</v>
+      </c>
+      <c r="B76" s="1">
+        <v>1.76656415284027E-6</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -1786,7 +4364,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -1794,7 +4372,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -1802,7 +4380,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -1810,7 +4388,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -1818,7 +4396,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -1826,7 +4404,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -1834,7 +4412,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1842,7 +4420,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -1850,7 +4428,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -1858,7 +4436,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -1866,7 +4444,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -1874,7 +4452,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -1882,7 +4460,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -1890,7 +4468,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -1898,7 +4476,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -1906,7 +4484,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -1914,7 +4492,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -1922,7 +4500,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -1930,7 +4508,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -1938,7 +4516,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -1946,7 +4524,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B98">
         <v>0</v>
@@ -1954,7 +4532,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -1962,7 +4540,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -1970,7 +4548,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B101">
         <v>0</v>
@@ -1978,7 +4556,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -1986,7 +4564,7 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -1994,7 +4572,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2002,7 +4580,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B105">
         <v>0</v>
@@ -2010,7 +4588,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B106">
         <v>0</v>
@@ -2018,7 +4596,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B107">
         <v>0</v>
@@ -2026,7 +4604,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B108">
         <v>0</v>
@@ -2034,7 +4612,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B109">
         <v>0</v>
@@ -2042,7 +4620,7 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B110">
         <v>0</v>
@@ -2050,7 +4628,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B111">
         <v>0</v>
@@ -2058,7 +4636,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B112">
         <v>0</v>
@@ -2066,7 +4644,7 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B113">
         <v>0</v>
@@ -2074,7 +4652,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B114">
         <v>0</v>
@@ -2082,7 +4660,7 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B115">
         <v>0</v>
@@ -2090,7 +4668,7 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B116">
         <v>0</v>
@@ -2098,7 +4676,7 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B117">
         <v>0</v>
@@ -2106,7 +4684,7 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B118">
         <v>0</v>
@@ -2114,7 +4692,7 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B119">
         <v>0</v>
@@ -2122,7 +4700,7 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B120">
         <v>0</v>
@@ -2130,7 +4708,7 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B121">
         <v>0</v>
@@ -2138,7 +4716,7 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B122">
         <v>0</v>
@@ -2146,7 +4724,7 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B123">
         <v>0</v>
@@ -2154,7 +4732,7 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B124">
         <v>0</v>
@@ -2162,7 +4740,7 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B125">
         <v>0</v>
@@ -2170,7 +4748,7 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B126">
         <v>0</v>
@@ -2178,7 +4756,7 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B127">
         <v>0</v>
@@ -2186,7 +4764,7 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B128">
         <v>0</v>
@@ -2194,7 +4772,7 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B129">
         <v>0</v>
@@ -2202,7 +4780,7 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B130">
         <v>0</v>
@@ -2210,7 +4788,7 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B131">
         <v>0</v>
@@ -2218,7 +4796,7 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B132">
         <v>0</v>
@@ -2226,7 +4804,7 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B133">
         <v>0</v>
@@ -2234,7 +4812,7 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B134">
         <v>0</v>
@@ -2242,7 +4820,7 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B135">
         <v>0</v>
@@ -2250,7 +4828,7 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B136">
         <v>0</v>
@@ -2258,7 +4836,7 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B137">
         <v>0</v>
@@ -2266,7 +4844,7 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B138">
         <v>0</v>
@@ -2274,7 +4852,7 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B139">
         <v>0</v>
@@ -2282,7 +4860,7 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B140">
         <v>0</v>
@@ -2290,7 +4868,7 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B141">
         <v>0</v>
@@ -2298,7 +4876,7 @@
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B142">
         <v>0</v>
@@ -2306,7 +4884,7 @@
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B143">
         <v>0</v>
@@ -2314,7 +4892,7 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B144">
         <v>0</v>
@@ -2322,7 +4900,7 @@
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B145">
         <v>0</v>
@@ -2330,7 +4908,7 @@
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B146">
         <v>0</v>
@@ -2338,7 +4916,7 @@
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B147">
         <v>0</v>
@@ -2346,7 +4924,7 @@
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B148">
         <v>0</v>
@@ -2354,7 +4932,7 @@
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B149">
         <v>0</v>
@@ -2362,7 +4940,7 @@
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B150">
         <v>0</v>
@@ -2370,7 +4948,7 @@
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B151">
         <v>0</v>
@@ -2378,7 +4956,7 @@
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B152">
         <v>0</v>
@@ -2386,7 +4964,7 @@
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B153">
         <v>0</v>
@@ -2394,7 +4972,7 @@
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B154">
         <v>0</v>
@@ -2402,7 +4980,7 @@
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B155">
         <v>0</v>
@@ -2410,7 +4988,7 @@
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B156">
         <v>0</v>
@@ -2418,7 +4996,7 @@
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B157">
         <v>0</v>
@@ -2426,7 +5004,7 @@
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B158">
         <v>0</v>
@@ -2434,7 +5012,7 @@
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B159">
         <v>0</v>
@@ -2442,857 +5020,865 @@
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>159</v>
-      </c>
-      <c r="B160" s="1">
-        <v>-7.78169012385652E-6</v>
+        <v>158</v>
+      </c>
+      <c r="B160">
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B161" s="1">
-        <v>-9.0202940478445706E-6</v>
+        <v>-7.78169012385652E-6</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B162" s="1">
-        <v>-1.6290048045343699E-5</v>
+        <v>-9.0202940478445706E-6</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B163" s="1">
-        <v>-1.6879364192409902E-5</v>
+        <v>-1.6290048045343699E-5</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B164" s="1">
-        <v>-2.13632590176618E-5</v>
+        <v>-1.6879364192409902E-5</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B165" s="1">
-        <v>-2.2653351995397902E-5</v>
+        <v>-2.13632590176618E-5</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B166" s="1">
-        <v>-4.9544541825434697E-5</v>
+        <v>-2.2653351995397902E-5</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B167" s="1">
-        <v>-5.3593748934817198E-5</v>
+        <v>-4.9544541825434697E-5</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B168" s="1">
-        <v>-7.2529513887430598E-5</v>
+        <v>-5.3593748934817198E-5</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B169" s="1">
-        <v>-7.79084958742537E-5</v>
+        <v>-7.2529513887430598E-5</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B170" s="1">
-        <v>-8.0394341363535098E-5</v>
+        <v>-7.79084958742537E-5</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B171" s="1">
-        <v>-8.0890435169169599E-5</v>
+        <v>-8.0394341363535098E-5</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B172" s="1">
-        <v>-8.3227970386026898E-5</v>
+        <v>-8.0890435169169599E-5</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B173" s="1">
-        <v>-8.7320629680255797E-5</v>
+        <v>-8.3227970386026898E-5</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B174" s="1">
-        <v>-9.3161008324070001E-5</v>
+        <v>-8.7320629680255797E-5</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B175" s="1">
-        <v>-9.36878870222057E-5</v>
+        <v>-9.3161008324070001E-5</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B176" s="1">
-        <v>-9.8672408216487597E-5</v>
+        <v>-9.36878870222057E-5</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>176</v>
-      </c>
-      <c r="B177">
-        <v>-1.0933638954315299E-4</v>
+        <v>175</v>
+      </c>
+      <c r="B177" s="1">
+        <v>-9.8672408216487597E-5</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B178">
-        <v>-1.23917552862021E-4</v>
+        <v>-1.0933638954315299E-4</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B179">
-        <v>-1.46314669193588E-4</v>
+        <v>-1.23917552862021E-4</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B180">
-        <v>-1.7626322311221801E-4</v>
+        <v>-1.46314669193588E-4</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B181">
-        <v>-1.8348591297105701E-4</v>
+        <v>-1.7626322311221801E-4</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B182">
-        <v>-2.02060706488436E-4</v>
+        <v>-1.8348591297105701E-4</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B183">
-        <v>-2.12784751031368E-4</v>
+        <v>-2.02060706488436E-4</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B184">
-        <v>-2.38115921553137E-4</v>
+        <v>-2.12784751031368E-4</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B185">
-        <v>-2.85965006091978E-4</v>
+        <v>-2.38115921553137E-4</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B186">
-        <v>-3.5087921509289398E-4</v>
+        <v>-2.85965006091978E-4</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B187">
-        <v>-3.6205228374108902E-4</v>
+        <v>-3.5087921509289398E-4</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B188">
-        <v>-4.1026705846247203E-4</v>
+        <v>-3.6205228374108902E-4</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B189">
-        <v>-5.0136535587015597E-4</v>
+        <v>-4.1026705846247203E-4</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B190">
-        <v>-5.21368871840679E-4</v>
+        <v>-5.0136535587015597E-4</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B191">
-        <v>-5.9510161238824104E-4</v>
+        <v>-5.21368871840679E-4</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B192">
-        <v>-6.3262852398063404E-4</v>
+        <v>-5.9510161238824104E-4</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B193">
-        <v>-6.4624202408672003E-4</v>
+        <v>-6.3262852398063404E-4</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B194">
-        <v>-9.3368060279888697E-4</v>
+        <v>-6.4624202408672003E-4</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B195">
-        <v>-1.0436462052743299E-3</v>
+        <v>-9.3368060279888697E-4</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B196">
-        <v>-1.08797767761768E-3</v>
+        <v>-1.0436462052743299E-3</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B197">
-        <v>-1.2553273528036601E-3</v>
+        <v>-1.08797767761768E-3</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B198">
-        <v>-1.3408750372799899E-3</v>
+        <v>-1.2553273528036601E-3</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B199">
-        <v>-1.5944412711198599E-3</v>
+        <v>-1.3408750372799899E-3</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B200">
-        <v>-2.21677708455817E-3</v>
+        <v>-1.5944412711198599E-3</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B201">
-        <v>-3.75298934483257E-3</v>
+        <v>-2.21677708455817E-3</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B202">
-        <v>-4.5703329339761498E-3</v>
+        <v>-3.75298934483257E-3</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B203">
-        <v>-5.4922362517873004E-3</v>
+        <v>-4.5703329339761498E-3</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B204">
-        <v>-1.4820973097907199E-2</v>
+        <v>-5.4922362517873004E-3</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B205">
-        <v>-1.8828164934908301E-2</v>
+        <v>-1.4820973097907199E-2</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B206">
-        <v>-2.11640748244925E-2</v>
+        <v>-1.8828164934908301E-2</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B207">
-        <v>-2.4786036465101701E-2</v>
+        <v>-2.11640748244925E-2</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B208">
-        <v>-2.6061804122373598E-2</v>
+        <v>-2.4786036465101701E-2</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B209">
-        <v>-2.9126016905680199E-2</v>
+        <v>-2.6061804122373598E-2</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B210">
-        <v>-2.99708612695056E-2</v>
+        <v>-2.9126016905680199E-2</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B211">
-        <v>-4.5742034347293799E-2</v>
+        <v>-2.99708612695056E-2</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B212">
-        <v>-5.8071596073220703E-2</v>
+        <v>-4.5742034347293799E-2</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B213">
-        <v>-5.9440574488991899E-2</v>
+        <v>-5.8071596073220703E-2</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B214">
-        <v>-6.0712779226713497E-2</v>
+        <v>-5.9440574488991899E-2</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B215">
-        <v>-7.3694371106360304E-2</v>
+        <v>-6.0712779226713497E-2</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B216">
-        <v>-8.6275053464956203E-2</v>
+        <v>-7.3694371106360304E-2</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B217">
-        <v>-9.4561036050792302E-2</v>
+        <v>-8.6275053464956203E-2</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B218">
-        <v>-0.100247356472474</v>
+        <v>-9.4561036050792302E-2</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B219">
-        <v>-0.105120374249096</v>
+        <v>-0.100247356472474</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B220">
-        <v>-0.10694303440895001</v>
+        <v>-0.105120374249096</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B221">
-        <v>-0.10735869558078801</v>
+        <v>-0.10694303440895001</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B222">
-        <v>-0.108394026738107</v>
+        <v>-0.10735869558078801</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B223">
-        <v>-0.110169452372781</v>
+        <v>-0.108394026738107</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B224">
-        <v>-0.111923012234417</v>
+        <v>-0.110169452372781</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B225">
-        <v>-0.119025638483661</v>
+        <v>-0.111923012234417</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B226">
-        <v>-0.120204716745584</v>
+        <v>-0.119025638483661</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B227">
-        <v>-0.12337428661968999</v>
+        <v>-0.120204716745584</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B228">
-        <v>-0.13784144133665599</v>
+        <v>-0.12337428661968999</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B229">
-        <v>-0.13879205057368499</v>
+        <v>-0.13784144133665599</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B230">
-        <v>-0.15535192493175201</v>
+        <v>-0.13879205057368499</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B231">
-        <v>-0.159973117876194</v>
+        <v>-0.15535192493175201</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B232">
-        <v>-0.16869627776353899</v>
+        <v>-0.159973117876194</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B233">
-        <v>-0.17271285868034</v>
+        <v>-0.16869627776353899</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B234">
-        <v>-0.173554916090775</v>
+        <v>-0.17271285868034</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B235">
-        <v>-0.22586839687778201</v>
+        <v>-0.173554916090775</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B236">
-        <v>-0.267884872900571</v>
+        <v>-0.22586839687778201</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B237">
-        <v>-0.294077542637044</v>
+        <v>-0.267884872900571</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B238">
-        <v>-0.45822373580199299</v>
+        <v>-0.294077542637044</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B239">
-        <v>-0.46076427455102698</v>
+        <v>-0.45822373580199299</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B240">
-        <v>-0.51781426565187805</v>
+        <v>-0.46076427455102698</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B241">
-        <v>-0.52213958417240203</v>
+        <v>-0.51781426565187805</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B242">
-        <v>-0.53030154972228705</v>
+        <v>-0.52213958417240203</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B243">
-        <v>-0.53907246551792998</v>
+        <v>-0.53030154972228705</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B244">
-        <v>-0.62563604696796704</v>
+        <v>-0.53907246551792998</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B245">
-        <v>-0.66689871964019098</v>
+        <v>-0.62563604696796704</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B246">
-        <v>-0.678010986025115</v>
+        <v>-0.66689871964019098</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B247">
-        <v>-0.75338817141338799</v>
+        <v>-0.678010986025115</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B248">
-        <v>-0.76091577362417895</v>
+        <v>-0.75338817141338799</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B249">
-        <v>-0.76877256660016002</v>
+        <v>-0.76091577362417895</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B250">
-        <v>-0.82221335064650103</v>
+        <v>-0.76877256660016002</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B251">
-        <v>-0.91680064153222096</v>
+        <v>-0.82221335064650103</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B252">
-        <v>-0.95373226978534698</v>
+        <v>-0.91680064153222096</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B253">
-        <v>-1.0193002829673901</v>
+        <v>-0.95373226978534698</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B254">
-        <v>-1.1096830496002601</v>
+        <v>-1.0193002829673901</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B255">
-        <v>-1.16486350210582</v>
+        <v>-1.1096830496002601</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B256">
-        <v>-1.18668997218636</v>
+        <v>-1.16486350210582</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B257">
-        <v>-1.2230096290602099</v>
+        <v>-1.18668997218636</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B258">
-        <v>-1.4470306949894001</v>
+        <v>-1.2230096290602099</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B259">
-        <v>-1.5343493413157401</v>
+        <v>-1.4470306949894001</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B260">
-        <v>-1.5398086552905801</v>
+        <v>-1.5343493413157401</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B261">
-        <v>-1.8255258686507301</v>
+        <v>-1.5398086552905801</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B262">
-        <v>-1.9264940510290001</v>
+        <v>-1.8255258686507301</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B263">
-        <v>-1.9986053146527401</v>
+        <v>-1.9264940510290001</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B264">
-        <v>-2.0111602777269901</v>
+        <v>-1.9986053146527401</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B265">
-        <v>-2.5440384921913899</v>
+        <v>-2.0111602777269901</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
+        <v>264</v>
+      </c>
+      <c r="B266">
+        <v>-2.5440384921913899</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A267" t="s">
         <v>265</v>
       </c>
-      <c r="B266">
+      <c r="B267">
         <v>-7.0938330750479901</v>
       </c>
     </row>
@@ -3312,6 +5898,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
